--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>1241.26137112673</v>
+        <v>1381.905250179444</v>
       </c>
       <c r="R2">
-        <v>1241.26137112673</v>
+        <v>12437.147251615</v>
       </c>
       <c r="S2">
-        <v>0.00103707248532229</v>
+        <v>0.0009982617993287205</v>
       </c>
       <c r="T2">
-        <v>0.00103707248532229</v>
+        <v>0.0009982617993287203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>5095.913172412867</v>
+        <v>5717.360470399977</v>
       </c>
       <c r="R3">
-        <v>5095.913172412867</v>
+        <v>51456.24423359979</v>
       </c>
       <c r="S3">
-        <v>0.004257629747958405</v>
+        <v>0.004130111344356827</v>
       </c>
       <c r="T3">
-        <v>0.004257629747958405</v>
+        <v>0.004130111344356825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>13547.75265040287</v>
+        <v>15087.90661760454</v>
       </c>
       <c r="R4">
-        <v>13547.75265040287</v>
+        <v>135791.1595584409</v>
       </c>
       <c r="S4">
-        <v>0.01131913216547723</v>
+        <v>0.01089921382543254</v>
       </c>
       <c r="T4">
-        <v>0.01131913216547723</v>
+        <v>0.01089921382543254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>13489.92529157694</v>
+        <v>17414.44606389785</v>
       </c>
       <c r="R5">
-        <v>13489.92529157694</v>
+        <v>156730.0145750807</v>
       </c>
       <c r="S5">
-        <v>0.01127081747194674</v>
+        <v>0.01257986121682528</v>
       </c>
       <c r="T5">
-        <v>0.01127081747194674</v>
+        <v>0.01257986121682528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>3234.508457824691</v>
+        <v>4048.272000120592</v>
       </c>
       <c r="R6">
-        <v>3234.508457824691</v>
+        <v>36434.44800108533</v>
       </c>
       <c r="S6">
-        <v>0.002702428193755285</v>
+        <v>0.002924393905072504</v>
       </c>
       <c r="T6">
-        <v>0.002702428193755285</v>
+        <v>0.002924393905072503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>30414.8721777518</v>
+        <v>30419.71896996097</v>
       </c>
       <c r="R7">
-        <v>30414.8721777518</v>
+        <v>273777.4707296488</v>
       </c>
       <c r="S7">
-        <v>0.02541159163884138</v>
+        <v>0.02197462046698501</v>
       </c>
       <c r="T7">
-        <v>0.02541159163884138</v>
+        <v>0.02197462046698501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>124866.1654774357</v>
+        <v>125855.588678708</v>
       </c>
       <c r="R8">
-        <v>124866.1654774357</v>
+        <v>1132700.298108372</v>
       </c>
       <c r="S8">
-        <v>0.1043255414021317</v>
+        <v>0.09091565893802639</v>
       </c>
       <c r="T8">
-        <v>0.1043255414021317</v>
+        <v>0.09091565893802639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>331963.2550747699</v>
+        <v>332128.3272445388</v>
       </c>
       <c r="R9">
-        <v>331963.2550747699</v>
+        <v>2989154.945200849</v>
       </c>
       <c r="S9">
-        <v>0.2773549278050638</v>
+        <v>0.2399231217336489</v>
       </c>
       <c r="T9">
-        <v>0.2773549278050638</v>
+        <v>0.2399231217336489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>330546.2998967713</v>
+        <v>383342.1685115729</v>
       </c>
       <c r="R10">
-        <v>330546.2998967713</v>
+        <v>3450079.516604157</v>
       </c>
       <c r="S10">
-        <v>0.276171063340883</v>
+        <v>0.2769190165876024</v>
       </c>
       <c r="T10">
-        <v>0.276171063340883</v>
+        <v>0.2769190165876024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>79255.79865044469</v>
+        <v>89114.13900601307</v>
       </c>
       <c r="R11">
-        <v>79255.79865044469</v>
+        <v>802027.2510541177</v>
       </c>
       <c r="S11">
-        <v>0.06621813100331131</v>
+        <v>0.06437434168386053</v>
       </c>
       <c r="T11">
-        <v>0.06621813100331131</v>
+        <v>0.06437434168386053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>5387.081227904522</v>
+        <v>5608.697091969952</v>
       </c>
       <c r="R12">
-        <v>5387.081227904522</v>
+        <v>50478.27382772957</v>
       </c>
       <c r="S12">
-        <v>0.004500900332203759</v>
+        <v>0.00405161500775299</v>
       </c>
       <c r="T12">
-        <v>0.004500900332203759</v>
+        <v>0.004051615007752989</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>22116.29140220294</v>
+        <v>23204.87822150783</v>
       </c>
       <c r="R13">
-        <v>22116.29140220294</v>
+        <v>208843.9039935704</v>
       </c>
       <c r="S13">
-        <v>0.01847813669555728</v>
+        <v>0.0167627581439453</v>
       </c>
       <c r="T13">
-        <v>0.01847813669555728</v>
+        <v>0.01676275814394529</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>58797.32156413625</v>
+        <v>61236.83078784468</v>
       </c>
       <c r="R14">
-        <v>58797.32156413625</v>
+        <v>551131.4770906022</v>
       </c>
       <c r="S14">
-        <v>0.0491250963118766</v>
+        <v>0.04423630989137951</v>
       </c>
       <c r="T14">
-        <v>0.0491250963118766</v>
+        <v>0.04423630989137949</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>58546.35050643897</v>
+        <v>70679.48615447294</v>
       </c>
       <c r="R15">
-        <v>58546.35050643897</v>
+        <v>636115.3753902564</v>
       </c>
       <c r="S15">
-        <v>0.04891541027426647</v>
+        <v>0.05105750268698347</v>
       </c>
       <c r="T15">
-        <v>0.04891541027426647</v>
+        <v>0.05105750268698346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>14037.7846277686</v>
+        <v>16430.59926983516</v>
       </c>
       <c r="R16">
-        <v>14037.7846277686</v>
+        <v>147875.3934285164</v>
       </c>
       <c r="S16">
-        <v>0.01172855333371416</v>
+        <v>0.0118691491974757</v>
       </c>
       <c r="T16">
-        <v>0.01172855333371416</v>
+        <v>0.0118691491974757</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>2982.533399349368</v>
+        <v>5810.347945101897</v>
       </c>
       <c r="R17">
-        <v>2982.533399349368</v>
+        <v>52293.13150591707</v>
       </c>
       <c r="S17">
-        <v>0.002491903314619614</v>
+        <v>0.004197283709321009</v>
       </c>
       <c r="T17">
-        <v>0.002491903314619614</v>
+        <v>0.004197283709321009</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>12244.58570164753</v>
+        <v>24039.16886217897</v>
       </c>
       <c r="R18">
-        <v>12244.58570164753</v>
+        <v>216352.5197596107</v>
       </c>
       <c r="S18">
-        <v>0.01023033763938254</v>
+        <v>0.01736543367181621</v>
       </c>
       <c r="T18">
-        <v>0.01023033763938254</v>
+        <v>0.01736543367181621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>32552.87379907116</v>
+        <v>63438.49348579015</v>
       </c>
       <c r="R19">
-        <v>32552.87379907116</v>
+        <v>570946.4413721113</v>
       </c>
       <c r="S19">
-        <v>0.02719788959882066</v>
+        <v>0.04582674871928074</v>
       </c>
       <c r="T19">
-        <v>0.02719788959882066</v>
+        <v>0.04582674871928074</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>32413.92479678493</v>
+        <v>73220.64294156036</v>
       </c>
       <c r="R20">
-        <v>32413.92479678493</v>
+        <v>658985.7864740433</v>
       </c>
       <c r="S20">
-        <v>0.02708179786303803</v>
+        <v>0.05289318552147946</v>
       </c>
       <c r="T20">
-        <v>0.02708179786303803</v>
+        <v>0.05289318552147945</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N21">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q21">
-        <v>7771.956600230987</v>
+        <v>17021.33260877318</v>
       </c>
       <c r="R21">
-        <v>7771.956600230987</v>
+        <v>153191.9934789586</v>
       </c>
       <c r="S21">
-        <v>0.006493461034642641</v>
+        <v>0.01229588361054429</v>
       </c>
       <c r="T21">
-        <v>0.006493461034642641</v>
+        <v>0.01229588361054429</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N22">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q22">
-        <v>555.4831316899226</v>
+        <v>605.0370301213151</v>
       </c>
       <c r="R22">
-        <v>555.4831316899226</v>
+        <v>5445.333271091836</v>
       </c>
       <c r="S22">
-        <v>0.0004641055343673145</v>
+        <v>0.0004370671247330308</v>
       </c>
       <c r="T22">
-        <v>0.0004641055343673145</v>
+        <v>0.0004370671247330308</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N23">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q23">
-        <v>2280.497785299096</v>
+        <v>2503.221402983033</v>
       </c>
       <c r="R23">
-        <v>2280.497785299096</v>
+        <v>22528.9926268473</v>
       </c>
       <c r="S23">
-        <v>0.001905353345383891</v>
+        <v>0.001808279041949889</v>
       </c>
       <c r="T23">
-        <v>0.001905353345383891</v>
+        <v>0.001808279041949888</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N24">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q24">
-        <v>6062.823064231081</v>
+        <v>6605.91036142152</v>
       </c>
       <c r="R24">
-        <v>6062.823064231081</v>
+        <v>59453.19325279368</v>
       </c>
       <c r="S24">
-        <v>0.005065481879601227</v>
+        <v>0.004771982712085781</v>
       </c>
       <c r="T24">
-        <v>0.005065481879601227</v>
+        <v>0.004771982712085781</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N25">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q25">
-        <v>6036.944451454446</v>
+        <v>7624.53484154605</v>
       </c>
       <c r="R25">
-        <v>6036.944451454446</v>
+        <v>68620.81357391445</v>
       </c>
       <c r="S25">
-        <v>0.005043860327611257</v>
+        <v>0.00550781746359089</v>
       </c>
       <c r="T25">
-        <v>0.005043860327611257</v>
+        <v>0.00550781746359089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N26">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q26">
-        <v>1447.491180684266</v>
+        <v>1772.447472616653</v>
       </c>
       <c r="R26">
-        <v>1447.491180684266</v>
+        <v>15952.02725354988</v>
       </c>
       <c r="S26">
-        <v>0.001209377260223352</v>
+        <v>0.001280381996522689</v>
       </c>
       <c r="T26">
-        <v>0.001209377260223352</v>
+        <v>0.001280381996522689</v>
       </c>
     </row>
   </sheetData>
